--- a/decArgo_soft/config/_VersionsLogiciellesProvor_20151211.xlsx
+++ b/decArgo_soft/config/_VersionsLogiciellesProvor_20151211.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$H$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1065,6 +1065,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1078,12 +1084,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1397,9 +1397,9 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="A1:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,16 +1415,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2674,20 +2674,20 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="57"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="33"/>
       <c r="E52" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="33"/>
       <c r="E53" s="35" t="s">
         <v>87</v>
@@ -2819,14 +2819,21 @@
       <c r="C67" s="54"/>
     </row>
     <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="61"/>
+      <c r="C68" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
   <mergeCells count="18">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B66:C66"/>
@@ -2838,16 +2845,9 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
